--- a/medicine/Enfance/Derek_Landy/Derek_Landy.xlsx
+++ b/medicine/Enfance/Derek_Landy/Derek_Landy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Derek Landy, né le 23 octobre 1974 à Dublin en Irlande, est un écrivain et scénariste irlandais, surtout connu pour la série Skully Fourbery pour la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Derek Landy est né en 1974 à Dublin, en Irlande. Il a assisté à Drogheda Grammar School lors de ses années d'enfance, brièvement étudié l'animation à Ballyfermot College, et a obtenu une ceinture noire au Karaté. Avant son contrat avec HarperCollins, il a travaillé dans la ferme de légumes de ses parents.
 </t>
@@ -542,7 +556,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Derek Landy a écrit deux scénarios de films, l'IFTA a primé Dead Bodies et l'IFTA a nommé Boy Eats Girl avec Samantha Mumba.
 Derek Landy a été nommé pour un IFTA du meilleur scénario. Frustré par le processus de collaboration de la cinématographie, Landy est passé à l'écriture en commençant par Skully Fourbery. Le roman a été publié par Harper Collins, qui a payé 1,8 million de £ pour les droits d'édition. Il y a 9 livres dans la série dont 4 publiés en France. En 2007, il a signé un accord avec Warner Bros. d'une valeur estimée à 1 million $ pour les droits d'adaptation de sa série de livres Skully Fourbery, dont il sera lui-même l'adaptateur. Cependant, son scénario a été constamment réécrit et Derek Landy, en voyant le script proposé par Warner Bros qui voulait en faire une comédie musicale, il a racheté les droits.
@@ -577,9 +593,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Skully Fourbery
-Romans
-Skully Fourbery, Gallimard Jeunesse, 2008 ((en) Skulduggery Pleasant, 2007)
+          <t>Série Skully Fourbery</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Skully Fourbery, Gallimard Jeunesse, 2008 ((en) Skulduggery Pleasant, 2007)
 Skully Fourbery joue avec le feu, Gallimard Jeunesse, 2009 ((en) Playing With Fire, 2008)
 Skully Fourbery contre les Sans-Visage, Gallimard Jeunesse, 2010 ((en) The Faceless Ones, 2009)
 Skully Fourbery n'est plus de ce monde, Gallimard Jeunesse, 2012 ((en) Dark Days, 2010)
@@ -587,15 +611,7 @@
 (en) Death Bringer, 2011
 (en) Kingdom of the Wicked, 2012
 (en) Last Stand of Dead Men, 2013
-(en) The Dying of the Light, 2014
-Nouvelles
-(en) The End of the World, 2012
-(en) Tanith Low in... The Maleficent Seven, 2013
-Recueils de nouvelles
-(en) Armageddon Outta Here, 2014
-Série Demon Road
-(en) Demon Road, 2015
-(en) Desolation, 2016</t>
+(en) The Dying of the Light, 2014</t>
         </is>
       </c>
     </row>
@@ -620,10 +636,130 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Skully Fourbery</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The End of the World, 2012
+(en) Tanith Low in... The Maleficent Seven, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Derek_Landy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Derek_Landy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Skully Fourbery</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Armageddon Outta Here, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Derek_Landy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Derek_Landy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Demon Road</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Demon Road, 2015
+(en) Desolation, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Derek_Landy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Derek_Landy</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2008, Derek Landy a remporté le prix du livre Red House des enfants. Skully Fourbery joue avec le feu, Death Bringer et Last Stand of Dead Men ont chacun remporté les prix du livre irlandais des enfants en 2009, 2010 et 2013.
 En 2010, Skully Fourbery a été désigné comme étant le livre irlandais de la décennie.
